--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624685.241313141</v>
+        <v>1622797.659796739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>640139.2267795238</v>
+        <v>104905.5848223765</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>320.0830856925202</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>37.06286729089732</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.91242278797865</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>296.760785399662</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>59.88405477340616</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.787420751036564</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>302.9292918569083</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1663911814753</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>113.9016148438897</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>81.89148716392585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>70.43754174433768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>121.2051997333536</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>149.0799667719509</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>20.11669065287791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>39.61035505917255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.00837259454033</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139976</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75080517077489</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857192</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463068</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2033.346402544967</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1664.383885604555</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1306.118186997805</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>920.3299343995602</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="F2" t="n">
-        <v>509.3440296099527</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>91.38022150813953</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>91.38022150813953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.95295430729</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005397</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>764.6872557005397</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>353.7013509109321</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>62.81916439716906</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1356.494390435623</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M12" t="n">
-        <v>2030.299435654558</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>371.7442270155259</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1383.864134351954</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1160.078719141459</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1160.078719141459</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>905.3942309355725</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>615.9770608986119</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>592.536806159056</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>371.7442270155259</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>571.8445279241287</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1185.741597681017</v>
+        <v>340.9799392532613</v>
       </c>
       <c r="M15" t="n">
-        <v>1954.109744073479</v>
+        <v>661.315258782963</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>761.3093662244439</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>761.3093662244439</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.5167870809138</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.4545387878458</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5704,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293932</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W19" t="n">
-        <v>933.2366688293932</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X19" t="n">
-        <v>705.2471179313759</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>484.4545387878458</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811259</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>755.1831334811259</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X22" t="n">
-        <v>734.8632439327646</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028593</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111987</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.985800817725</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>969.8571620312835</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>715.1726738253965</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>425.7555037884359</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>425.7555037884359</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028567</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626374</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1425.170439654326</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1225.250429569879</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1225.250429569879</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U28" t="n">
-        <v>936.1217907834368</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>681.4373025775499</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>392.0201325405893</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.6741376354912</v>
+        <v>439.5324299542175</v>
       </c>
       <c r="C31" t="n">
-        <v>339.498819988955</v>
+        <v>326.3571123076814</v>
       </c>
       <c r="D31" t="n">
-        <v>245.14304585799</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>152.9908175569676</v>
+        <v>139.8491098756941</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6628,10 +6628,10 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1893.953532580544</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1749.794387777466</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.769837848343</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1348.402064343272</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.478441418756</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>915.822136663166</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>743.5934510465195</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.5617371843601</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,25 +6698,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N33" t="n">
-        <v>2328.464088060424</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N36" t="n">
-        <v>2328.464088060424</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>501.0375495607001</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>731.0006554290493</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1499.368801821511</v>
       </c>
       <c r="N39" t="n">
-        <v>2328.464088060424</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>539.3723184115837</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>220.5054825048005</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>220.5054825048005</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>450.4685883731496</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>258.1556805224378</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,13 +11391,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.08042991715256</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>84.01919513971359</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>204.6315111726652</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>96.80927935429015</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23944,16 +23944,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>130.9324435904744</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.84084321165233</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5929647361592</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>181.9372059992167</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>158.8051956154453</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.95597980925245</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>192.3581855871775</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>48.01209316312005</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.01029060446087</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.465938895416912e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="11">
@@ -26320,37 +26320,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470611</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="N2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="O2" t="n">
         <v>472099.0176719628</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719627</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
@@ -26427,34 +26427,34 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758902</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477236</v>
+        <v>18952.4162047724</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.07878661</v>
+        <v>-339787.0787866099</v>
       </c>
       <c r="C6" t="n">
         <v>250180.8004279345</v>
@@ -26528,37 +26528,37 @@
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>-168251.7374178235</v>
+        <v>-168349.1965437957</v>
       </c>
       <c r="F6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="G6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590725</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664796</v>
+        <v>180387.6207405075</v>
       </c>
       <c r="K6" t="n">
-        <v>308102.2279092203</v>
+        <v>308083.7341712861</v>
       </c>
       <c r="L6" t="n">
-        <v>340834.4241191741</v>
+        <v>340834.424119174</v>
       </c>
       <c r="M6" t="n">
-        <v>216376.3156862038</v>
+        <v>216376.3156862037</v>
       </c>
       <c r="N6" t="n">
+        <v>351177.3309200408</v>
+      </c>
+      <c r="O6" t="n">
         <v>351177.3309200411</v>
-      </c>
-      <c r="O6" t="n">
-        <v>351177.330920041</v>
       </c>
       <c r="P6" t="n">
         <v>307014.7256171954</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.79296004919127</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114.8684489539639</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>196.2331161620403</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>117.0233846211329</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>326.3538838826474</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.2278925609831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.7972326010582</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>46.31167686050469</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -31130,7 +31130,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516334</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="M12" t="n">
-        <v>425.8974584957645</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,13 +31856,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7966406602455</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32096,10 +32096,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32315,28 +32315,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32552,28 +32552,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>243.0697638780552</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467029</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>10.78379835447021</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32965,7 +32965,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33026,28 +33026,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>48.48571443651693</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>31.20105213445675</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>312.2752819045312</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>137.40759639269</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>83.85199691801353</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,16 +33971,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33989,19 +33989,19 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>87.71167780314278</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34445,25 +34445,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>125.2803196540504</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>379.6128330013096</v>
       </c>
       <c r="M12" t="n">
-        <v>749.4684883237461</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>311.4204386984651</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>119.6013007425637</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>629.2763168486817</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>566.6407937060368</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>536.1982776746845</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>358.7844606146904</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>175.1095124747365</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>282.4671269667418</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>563.5413567368163</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>460.9786262206716</v>
       </c>
       <c r="N33" t="n">
-        <v>274.515464094862</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>407.4230267459951</v>
       </c>
       <c r="N36" t="n">
-        <v>274.515464094862</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>407.8994526266811</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>274.515464094862</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>319.9976433267278</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>124.5337283277925</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
